--- a/serie_historica_proporcao_mediana.xlsx
+++ b/serie_historica_proporcao_mediana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,27 +440,21 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="I1" s="1" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -471,27 +465,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.65029</v>
+        <v>18.052</v>
       </c>
       <c r="C2" t="n">
-        <v>14.52963</v>
+        <v>19.65517</v>
       </c>
       <c r="D2" t="n">
-        <v>18.052</v>
+        <v>25.21456</v>
       </c>
       <c r="E2" t="n">
-        <v>19.65517</v>
+        <v>25.17938</v>
       </c>
       <c r="F2" t="n">
-        <v>25.21456</v>
+        <v>25.94824</v>
       </c>
       <c r="G2" t="n">
-        <v>25.17938</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.94824</v>
-      </c>
-      <c r="I2" t="n">
         <v>30.16553</v>
       </c>
     </row>
@@ -502,27 +490,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.65303</v>
+        <v>0.891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.74411</v>
+        <v>0.94153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.891</v>
+        <v>1.19585</v>
       </c>
       <c r="E3" t="n">
-        <v>0.94153</v>
+        <v>1.15325</v>
       </c>
       <c r="F3" t="n">
-        <v>1.19585</v>
+        <v>1.14734</v>
       </c>
       <c r="G3" t="n">
-        <v>1.15325</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.14734</v>
-      </c>
-      <c r="I3" t="n">
         <v>1.24927</v>
       </c>
     </row>
@@ -533,27 +515,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.33205</v>
+        <v>0.40451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36213</v>
+        <v>0.43362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.40451</v>
+        <v>0.56682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.43362</v>
+        <v>0.5282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.56682</v>
+        <v>0.52782</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.52782</v>
-      </c>
-      <c r="I4" t="n">
         <v>0.68646</v>
       </c>
     </row>
@@ -564,27 +540,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.88232</v>
+        <v>1.39688</v>
       </c>
       <c r="C5" t="n">
-        <v>1.08587</v>
+        <v>1.41195</v>
       </c>
       <c r="D5" t="n">
-        <v>1.39688</v>
+        <v>1.65131</v>
       </c>
       <c r="E5" t="n">
-        <v>1.41195</v>
+        <v>1.54502</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65131</v>
+        <v>1.48384</v>
       </c>
       <c r="G5" t="n">
-        <v>1.54502</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.48384</v>
-      </c>
-      <c r="I5" t="n">
         <v>1.67325</v>
       </c>
     </row>
@@ -595,27 +565,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.56254</v>
+        <v>5.37124</v>
       </c>
       <c r="C6" t="n">
-        <v>4.65382</v>
+        <v>5.68538</v>
       </c>
       <c r="D6" t="n">
-        <v>5.37124</v>
+        <v>6.71919</v>
       </c>
       <c r="E6" t="n">
-        <v>5.68538</v>
+        <v>6.2268</v>
       </c>
       <c r="F6" t="n">
-        <v>6.71919</v>
+        <v>5.68647</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2268</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.68647</v>
-      </c>
-      <c r="I6" t="n">
         <v>5.90086</v>
       </c>
     </row>
@@ -626,27 +590,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.92497</v>
+        <v>6.54034</v>
       </c>
       <c r="C7" t="n">
-        <v>4.89323</v>
+        <v>7.33369</v>
       </c>
       <c r="D7" t="n">
-        <v>6.54034</v>
+        <v>11.07421</v>
       </c>
       <c r="E7" t="n">
-        <v>7.33369</v>
+        <v>11.61659</v>
       </c>
       <c r="F7" t="n">
-        <v>11.07421</v>
+        <v>12.2552</v>
       </c>
       <c r="G7" t="n">
-        <v>11.61659</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12.2552</v>
-      </c>
-      <c r="I7" t="n">
         <v>14.71083</v>
       </c>
     </row>
@@ -657,27 +615,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.49603</v>
+        <v>0.65827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.57177</v>
+        <v>0.72666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.65827</v>
+        <v>1.02218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.72666</v>
+        <v>0.85784</v>
       </c>
       <c r="F8" t="n">
-        <v>1.02218</v>
+        <v>0.7188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.85784</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.7188</v>
-      </c>
-      <c r="I8" t="n">
         <v>0.73999</v>
       </c>
     </row>
@@ -688,27 +640,21 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07668999999999999</v>
+        <v>0.1221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.10245</v>
+        <v>0.16575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1221</v>
+        <v>0.20704</v>
       </c>
       <c r="E9" t="n">
-        <v>0.16575</v>
+        <v>0.22492</v>
       </c>
       <c r="F9" t="n">
-        <v>0.20704</v>
+        <v>0.21972</v>
       </c>
       <c r="G9" t="n">
-        <v>0.22492</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.21972</v>
-      </c>
-      <c r="I9" t="n">
         <v>0.25501</v>
       </c>
     </row>
@@ -719,27 +665,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.27241</v>
+        <v>0.40413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.32599</v>
+        <v>0.44022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.40413</v>
+        <v>0.42819</v>
       </c>
       <c r="E10" t="n">
-        <v>0.44022</v>
+        <v>0.49597</v>
       </c>
       <c r="F10" t="n">
-        <v>0.42819</v>
+        <v>0.50417</v>
       </c>
       <c r="G10" t="n">
-        <v>0.49597</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.50417</v>
-      </c>
-      <c r="I10" t="n">
         <v>0.60498</v>
       </c>
     </row>
@@ -750,27 +690,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.66342</v>
+        <v>0.95978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.84333</v>
+        <v>1.19709</v>
       </c>
       <c r="D11" t="n">
-        <v>0.95978</v>
+        <v>0.92064</v>
       </c>
       <c r="E11" t="n">
-        <v>1.19709</v>
+        <v>1.29582</v>
       </c>
       <c r="F11" t="n">
-        <v>0.92064</v>
+        <v>1.66921</v>
       </c>
       <c r="G11" t="n">
-        <v>1.29582</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.66921</v>
-      </c>
-      <c r="I11" t="n">
         <v>2.35539</v>
       </c>
     </row>
@@ -781,27 +715,21 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.71852</v>
+        <v>0.94613</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8391999999999999</v>
+        <v>0.96884</v>
       </c>
       <c r="D12" t="n">
-        <v>0.94613</v>
+        <v>0.88217</v>
       </c>
       <c r="E12" t="n">
-        <v>0.96884</v>
+        <v>0.93386</v>
       </c>
       <c r="F12" t="n">
-        <v>0.88217</v>
+        <v>1.14677</v>
       </c>
       <c r="G12" t="n">
-        <v>0.93386</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.14677</v>
-      </c>
-      <c r="I12" t="n">
         <v>1.50001</v>
       </c>
     </row>
@@ -812,27 +740,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1467</v>
+        <v>0.30444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21841</v>
+        <v>0.3822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30444</v>
+        <v>0.62066</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3822</v>
+        <v>0.54305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.62066</v>
+        <v>0.50223</v>
       </c>
       <c r="G13" t="n">
-        <v>0.54305</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.50223</v>
-      </c>
-      <c r="I13" t="n">
         <v>0.56709</v>
       </c>
     </row>
@@ -843,27 +765,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.53431</v>
+        <v>22.04645</v>
       </c>
       <c r="C14" t="n">
-        <v>15.18065</v>
+        <v>22.38576</v>
       </c>
       <c r="D14" t="n">
-        <v>22.04645</v>
+        <v>25.85805</v>
       </c>
       <c r="E14" t="n">
-        <v>22.38576</v>
+        <v>25.83145</v>
       </c>
       <c r="F14" t="n">
-        <v>25.85805</v>
+        <v>27.45436</v>
       </c>
       <c r="G14" t="n">
-        <v>25.83145</v>
-      </c>
-      <c r="H14" t="n">
-        <v>27.45436</v>
-      </c>
-      <c r="I14" t="n">
         <v>30.06065</v>
       </c>
     </row>
@@ -874,27 +790,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.44248</v>
+        <v>11.11609</v>
       </c>
       <c r="C15" t="n">
-        <v>8.021140000000001</v>
+        <v>11.84625</v>
       </c>
       <c r="D15" t="n">
-        <v>11.11609</v>
+        <v>19.52393</v>
       </c>
       <c r="E15" t="n">
-        <v>11.84625</v>
+        <v>21.01421</v>
       </c>
       <c r="F15" t="n">
-        <v>19.52393</v>
+        <v>22.65373</v>
       </c>
       <c r="G15" t="n">
-        <v>21.01421</v>
-      </c>
-      <c r="H15" t="n">
-        <v>22.65373</v>
-      </c>
-      <c r="I15" t="n">
         <v>28.99968</v>
       </c>
     </row>
@@ -905,27 +815,21 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.01761</v>
+        <v>10.20369</v>
       </c>
       <c r="C16" t="n">
-        <v>7.34432</v>
+        <v>11.11009</v>
       </c>
       <c r="D16" t="n">
-        <v>10.20369</v>
+        <v>12.6461</v>
       </c>
       <c r="E16" t="n">
-        <v>11.11009</v>
+        <v>13.75093</v>
       </c>
       <c r="F16" t="n">
-        <v>12.6461</v>
+        <v>16.56344</v>
       </c>
       <c r="G16" t="n">
-        <v>13.75093</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16.56344</v>
-      </c>
-      <c r="I16" t="n">
         <v>19.44199</v>
       </c>
     </row>
@@ -936,27 +840,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.82956</v>
+        <v>19.76217</v>
       </c>
       <c r="C17" t="n">
-        <v>15.81567</v>
+        <v>22.00969</v>
       </c>
       <c r="D17" t="n">
-        <v>19.76217</v>
+        <v>28.3969</v>
       </c>
       <c r="E17" t="n">
-        <v>22.00969</v>
+        <v>28.41051</v>
       </c>
       <c r="F17" t="n">
-        <v>28.3969</v>
+        <v>28.67973</v>
       </c>
       <c r="G17" t="n">
-        <v>28.41051</v>
-      </c>
-      <c r="H17" t="n">
-        <v>28.67973</v>
-      </c>
-      <c r="I17" t="n">
         <v>31.80961</v>
       </c>
     </row>
@@ -967,27 +865,21 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.13259</v>
+        <v>24.98557</v>
       </c>
       <c r="C18" t="n">
-        <v>25.48447</v>
+        <v>26.63196</v>
       </c>
       <c r="D18" t="n">
-        <v>24.98557</v>
+        <v>29.51596</v>
       </c>
       <c r="E18" t="n">
-        <v>26.63196</v>
+        <v>27.70426</v>
       </c>
       <c r="F18" t="n">
-        <v>29.51596</v>
+        <v>26.59653</v>
       </c>
       <c r="G18" t="n">
-        <v>27.70426</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26.59653</v>
-      </c>
-      <c r="I18" t="n">
         <v>31.35544</v>
       </c>
     </row>
